--- a/Datasets/12140549/raw_data/phenotype_mapping2.xlsx
+++ b/Datasets/12140549/raw_data/phenotype_mapping2.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abaryshnikova/Lab/Projects/Phenotypes/Yeastphenome.org-Loading-data/Datasets/12140549/raw_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21860" yWindow="8920" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="17800" yWindow="1840" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Round</t>
   </si>
@@ -82,6 +90,9 @@
   </si>
   <si>
     <t>in log phase</t>
+  </si>
+  <si>
+    <t>Dataset id</t>
   </si>
 </sst>
 </file>
@@ -162,6 +173,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -487,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -504,7 +520,7 @@
     <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -526,8 +542,11 @@
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -546,8 +565,11 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>725</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -566,8 +588,11 @@
       <c r="G3">
         <v>-1</v>
       </c>
+      <c r="H3">
+        <v>725</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -586,8 +611,11 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>726</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -606,8 +634,11 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>727</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -626,8 +657,11 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>729</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -645,15 +679,13 @@
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>